--- a/doors_detection_long_term/scripts/results/detr_complete_metrics_real_data_0.75.xlsx
+++ b/doors_detection_long_term/scripts/results/detr_complete_metrics_real_data_0.75.xlsx
@@ -541,12 +541,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>29</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -671,17 +671,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -736,27 +736,27 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -866,17 +866,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -931,12 +931,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -946,12 +946,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -1061,27 +1061,27 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>29</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -1126,27 +1126,27 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>26</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -1191,17 +1191,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -1321,27 +1321,27 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -1386,17 +1386,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>38</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1451,17 +1451,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -1516,27 +1516,27 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1581,27 +1581,27 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1646,17 +1646,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>18</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -1711,14 +1711,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>0</t>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -1776,17 +1776,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -1906,17 +1906,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1986,12 +1986,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>34</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2116,12 +2116,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -2166,17 +2166,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>34</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -2231,12 +2231,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2296,27 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>33</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>125</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2376,12 +2376,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -2426,17 +2426,17 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>19</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2566,17 +2566,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -2621,17 +2621,17 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -2686,17 +2686,17 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>43</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>114</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2751,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -2816,17 +2816,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>36</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>105</t>
         </is>
       </c>
     </row>
@@ -2881,17 +2881,17 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -2946,27 +2946,27 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -3011,17 +3011,17 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>63</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -3076,17 +3076,17 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>63</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -3206,17 +3206,17 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -3336,17 +3336,17 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -3401,17 +3401,17 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -3466,19 +3466,19 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>0</t>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -3531,17 +3531,17 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -3596,17 +3596,17 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>53</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>76</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -3726,19 +3726,19 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>0</t>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3801,17 +3801,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -3856,19 +3856,19 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>1</t>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -3921,17 +3921,17 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -3986,27 +3986,27 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>19</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -4051,17 +4051,17 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -4116,27 +4116,27 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
           <t>35</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>21</t>
         </is>
       </c>
     </row>
@@ -4181,17 +4181,17 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>41</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>39</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -4376,27 +4376,27 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -4441,27 +4441,27 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
           <t>43</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
     </row>
@@ -4506,17 +4506,17 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>36</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -4571,12 +4571,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -4636,17 +4636,17 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>39</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -4701,17 +4701,17 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -4766,27 +4766,27 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -4831,17 +4831,17 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>63</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -4896,27 +4896,27 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -4961,27 +4961,27 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -5026,12 +5026,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -5091,27 +5091,27 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -5156,17 +5156,17 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -5351,27 +5351,27 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>74</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -5416,17 +5416,17 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>59</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -5546,17 +5546,17 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -5611,17 +5611,17 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>66</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -5676,17 +5676,17 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -5871,17 +5871,17 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>79</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -5936,17 +5936,17 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -6001,17 +6001,17 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -6066,17 +6066,17 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>74</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -6131,27 +6131,27 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>64</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -6261,17 +6261,17 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>85</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6346,7 +6346,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -6391,17 +6391,17 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -6456,17 +6456,17 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -6521,27 +6521,27 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>136</t>
         </is>
       </c>
     </row>
@@ -6586,17 +6586,17 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>66</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -6651,27 +6651,27 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>64</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>81</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6726,7 +6726,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -6781,17 +6781,17 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6801,7 +6801,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -6911,19 +6911,19 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>84</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>0</t>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -7041,27 +7041,27 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -7106,17 +7106,17 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -7171,17 +7171,17 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>32</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -7236,17 +7236,17 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -7301,27 +7301,27 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>37</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -7366,17 +7366,17 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -7431,19 +7431,19 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>41</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>0</t>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>146</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>74</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -7561,17 +7561,17 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>32</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -7626,17 +7626,17 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -7646,7 +7646,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -7691,17 +7691,17 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -7756,7 +7756,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>66</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -7776,7 +7776,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -7821,17 +7821,17 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -7886,7 +7886,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>76</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -7906,7 +7906,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -7951,19 +7951,19 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>0</t>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -8081,27 +8081,27 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>117</t>
         </is>
       </c>
     </row>
@@ -8146,17 +8146,17 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>64</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>63</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -8276,7 +8276,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>68</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -8341,27 +8341,27 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8406,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>85</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8416,17 +8416,17 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -8471,17 +8471,17 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>74</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -8491,7 +8491,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>109</t>
         </is>
       </c>
     </row>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -8601,7 +8601,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -8621,7 +8621,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>105</t>
         </is>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>76</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -8686,7 +8686,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>64</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -8741,7 +8741,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8796,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -8861,17 +8861,17 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -8926,7 +8926,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8936,7 +8936,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -8946,7 +8946,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -8991,17 +8991,17 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>83</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -9056,7 +9056,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -9121,27 +9121,27 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>143</t>
         </is>
       </c>
     </row>
@@ -9186,27 +9186,27 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>36</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>109</t>
         </is>
       </c>
     </row>
@@ -9251,17 +9251,17 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>77</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>166</t>
         </is>
       </c>
     </row>
@@ -9316,7 +9316,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>42</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -9326,7 +9326,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -9381,27 +9381,27 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>170</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9456,7 +9456,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -9511,27 +9511,27 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>103</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>128</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9576,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>69</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -9641,27 +9641,27 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>59</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>118</t>
         </is>
       </c>
     </row>
@@ -9706,27 +9706,27 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -9771,27 +9771,27 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>82</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>208</t>
         </is>
       </c>
     </row>
@@ -9836,27 +9836,27 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>46</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -9901,17 +9901,17 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>98</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -9921,7 +9921,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -9966,17 +9966,17 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -9986,7 +9986,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -10031,17 +10031,17 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -10051,7 +10051,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -10096,19 +10096,19 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>0</t>
@@ -10116,7 +10116,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -10161,17 +10161,17 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>44</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -10181,7 +10181,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -10226,17 +10226,17 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -10246,7 +10246,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -10291,27 +10291,27 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>37</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -10356,17 +10356,17 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -10376,7 +10376,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -10421,17 +10421,17 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>119</t>
         </is>
       </c>
     </row>
@@ -10486,17 +10486,17 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>36</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -10506,7 +10506,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10561,7 +10561,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>42</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10626,7 +10626,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -10681,17 +10681,17 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>119</t>
         </is>
       </c>
     </row>
@@ -10746,19 +10746,19 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>36</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>0</t>
@@ -10766,7 +10766,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -10811,17 +10811,17 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -10876,17 +10876,17 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>38</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -10896,7 +10896,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -10941,17 +10941,17 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>139</t>
         </is>
       </c>
     </row>
@@ -11006,7 +11006,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>46</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>84</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -11091,7 +11091,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>109</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11136,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>68</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11146,7 +11146,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -11156,7 +11156,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -11201,27 +11201,27 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>71</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>139</t>
         </is>
       </c>
     </row>
@@ -11266,17 +11266,17 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -11286,7 +11286,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -11331,27 +11331,27 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>74</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>149</t>
         </is>
       </c>
     </row>
@@ -11396,17 +11396,17 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -11461,27 +11461,27 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>89</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>148</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11526,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11536,7 +11536,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -11546,7 +11546,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -11591,27 +11591,27 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>97</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>118</t>
         </is>
       </c>
     </row>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -11676,7 +11676,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -11721,27 +11721,27 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>169</t>
         </is>
       </c>
     </row>
@@ -11786,27 +11786,27 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
           <t>68</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>42</t>
         </is>
       </c>
     </row>
@@ -11851,27 +11851,27 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>85</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>142</t>
         </is>
       </c>
     </row>
@@ -11916,17 +11916,17 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>59</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -11981,17 +11981,17 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>103</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -12001,7 +12001,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>134</t>
         </is>
       </c>
     </row>
@@ -12046,7 +12046,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>68</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -12056,7 +12056,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -12066,7 +12066,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -12111,27 +12111,27 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>115</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>129</t>
         </is>
       </c>
     </row>
@@ -12176,7 +12176,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>83</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12186,7 +12186,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -12196,7 +12196,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>53</t>
         </is>
       </c>
     </row>

--- a/doors_detection_long_term/scripts/results/detr_complete_metrics_real_data_0.75.xlsx
+++ b/doors_detection_long_term/scripts/results/detr_complete_metrics_real_data_0.75.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>125</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>77</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>79</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>68</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -4051,12 +4051,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -4506,27 +4506,27 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
           <t>36</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>37</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>67</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>69</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5546,12 +5546,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -5806,19 +5806,19 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>0</t>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>129</t>
         </is>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6341,12 +6341,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>79</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>93</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>134</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6801,7 +6801,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>108</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -7041,12 +7041,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>125</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7386,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>147</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7646,7 +7646,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>131</t>
         </is>
       </c>
     </row>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>86</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -8081,7 +8081,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>118</t>
         </is>
       </c>
     </row>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>109</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>111</t>
         </is>
       </c>
     </row>
@@ -8406,12 +8406,12 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -8421,12 +8421,12 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>71</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>93</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -8601,7 +8601,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -8666,7 +8666,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -8686,7 +8686,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -8861,7 +8861,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>114</t>
         </is>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>81</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -9056,7 +9056,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -9196,7 +9196,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>165</t>
         </is>
       </c>
     </row>
@@ -9316,7 +9316,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -9326,7 +9326,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>94</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>172</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -9531,7 +9531,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>129</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9576,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>114</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -9726,7 +9726,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>210</t>
         </is>
       </c>
     </row>
@@ -9836,7 +9836,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9856,7 +9856,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -9901,12 +9901,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -9921,7 +9921,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>110</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -10051,7 +10051,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>109</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -10376,7 +10376,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10506,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>118</t>
         </is>
       </c>
     </row>
@@ -10811,7 +10811,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -10886,7 +10886,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -10896,7 +10896,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -11091,7 +11091,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11136,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>67</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11146,7 +11146,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -11156,7 +11156,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -11201,7 +11201,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>69</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -11221,7 +11221,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>141</t>
         </is>
       </c>
     </row>
@@ -11266,12 +11266,12 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -11286,7 +11286,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -11331,7 +11331,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -11396,7 +11396,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -11526,7 +11526,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11536,7 +11536,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -11546,7 +11546,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11676,7 +11676,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -11721,7 +11721,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>71</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11731,7 +11731,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -11741,7 +11741,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>172</t>
         </is>
       </c>
     </row>
@@ -11786,7 +11786,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -11851,7 +11851,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -11871,7 +11871,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -11916,12 +11916,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -12001,7 +12001,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -12046,7 +12046,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>72</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -12056,7 +12056,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -12066,7 +12066,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>112</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>131</t>
         </is>
       </c>
     </row>
